--- a/result/Вантажопідіймальні пристрої.xlsx
+++ b/result/Вантажопідіймальні пристрої.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,28 +25,321 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>Поручні площадок кранів-маніпуляторів мають витримувати навантаження ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 Н
-700 Н
+    <t>При статичному випробуванні стрілового крану вантаж підіймається на висоту ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 - 200 мм
+200 - 300 мм
+до 0,5 м
+</t>
+  </si>
+  <si>
+    <t>100 - 200 мм</t>
+  </si>
+  <si>
+    <t>Робота на висоті, це робота, що виконуються на висоті:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вище 1,3 м
+Вище 5 м
+Від 1,3 м  до 5 м
+</t>
+  </si>
+  <si>
+    <t>Вище 5 м</t>
+  </si>
+  <si>
+    <t>Чи допускається експлуатація запобіжного стропа, який був під динамічним навантаженням внаслідок падіння працівника?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забороняється
+Допускається, якщо не має видимих пошкоджень.
+</t>
+  </si>
+  <si>
+    <t>Допускається, якщо не має видимих пошкоджень.</t>
+  </si>
+  <si>
+    <t>При роботах мобільних підйомників швидкість вітру не повинна перевищувати ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 м/с
+7,5 м/с
+10 м/с
+</t>
+  </si>
+  <si>
+    <t>10 м/с</t>
+  </si>
+  <si>
+    <t>За сильного туману, снігопаду робота крану ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Може бути подовжена при наявності радіотелефонного зв’язку
+Має бути припинена
+</t>
+  </si>
+  <si>
+    <t>Має бути припинена</t>
+  </si>
+  <si>
+    <t>Чи допускається переміщення вантажів над незахищеними робочими місцями?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не допускається
+Допускається, якщо розроблені і вжиті відповідні заходи безпеки
+</t>
+  </si>
+  <si>
+    <t>Допускається, якщо розроблені і вжиті відповідні заходи безпеки</t>
+  </si>
+  <si>
+    <t>Штучне освітлення місця виконання робіт повинно бути не менше ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 лк
+10 лк
+100 лк
+</t>
+  </si>
+  <si>
+    <t>10 лк</t>
+  </si>
+  <si>
+    <t>Виведення обладнання в ремонт здійснює ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Працівник по нагляду за утриманням и безпечною експлуатацією обладнання
+Працівник, відповідальний за утримання обладнання в справному стані
+Служба головного механіка відповідно до розробленого графіка
+</t>
+  </si>
+  <si>
+    <t>Працівник, відповідальний за утримання обладнання в справному стані</t>
+  </si>
+  <si>
+    <t>Чи допускається до експлуатації карабін, якщо засувку можна відкрити тільки двома руками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допускається
+Не допускається
+</t>
+  </si>
+  <si>
+    <t>Не допускається</t>
+  </si>
+  <si>
+    <t>Виносні опори - це пристрої, призначені для ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Збільшення опорного контору
+Створення опорного контуру
+</t>
+  </si>
+  <si>
+    <t>Збільшення опорного контору</t>
+  </si>
+  <si>
+    <t>Для безпечного переходу на висоті з одного робочого місця на інше необхідно застосувати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сталеві канати
+Синтетичні канати
+Усі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Сталеві канати</t>
+  </si>
+  <si>
+    <t>Елемент страхувальної системи, що з’єднує пояс і опору називається:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фал
+Запобіжний строп
+З’єднувач
+</t>
+  </si>
+  <si>
+    <t>Запобіжний строп</t>
+  </si>
+  <si>
+    <t>Довгомірний вантаж - це вантаж, довжина якого більше ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 м
+6 м
+10 м
+</t>
+  </si>
+  <si>
+    <t>6 м</t>
+  </si>
+  <si>
+    <t>Підвісний пульт керування має бути розташований на висоті ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не вище 1 м
+Не вище 1,5 м
+Від 1 до 1,5 м
+</t>
+  </si>
+  <si>
+    <t>Від 1 до 1,5 м</t>
+  </si>
+  <si>
+    <t>Канат повинен бути вибракуваний, якщо його діаметр внаслідок поверхневого зносу зменшився на...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%
+10%
+40%
+</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>Яка мінімальна кількість каната має залишатись на барабані?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 виток
+1,5 витка
+3 витка
+</t>
+  </si>
+  <si>
+    <t>1,5 витка</t>
+  </si>
+  <si>
+    <t>Працівник, який здійснює нагляд за крановими коліями, повинен проводити планові періодичні огляди кранових колій не рідше одного разу ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На тиждень
+На місяць
+При зміні сезону
+</t>
+  </si>
+  <si>
+    <t>На місяць</t>
+  </si>
+  <si>
+    <t>Статичне випробування мобільних підйомників проводиться навантаженням, що перевищує вантажопідіймальність на ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%
+25%
+50%
+</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>Коефіцієнт вантажної стійкості мобільного підйомника має бути не менше ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+1,15
+1,4
+</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>Форма наряду-допуску:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затверджується наказом роботодавця
+Установлюється законодавством
+</t>
+  </si>
+  <si>
+    <t>Установлюється законодавством</t>
+  </si>
+  <si>
+    <t>Корпус каски повинен бути стійким до дії:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хімічно агресивних речовин;
+Води
+Усі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Хімічно агресивних речовин;</t>
+  </si>
+  <si>
+    <t>При ВРВН  підборідний пасок на касці має бути:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обов’язково
+Не обов’язково у деяких випадках.
+</t>
+  </si>
+  <si>
+    <t>Обов’язково</t>
+  </si>
+  <si>
+    <t>При виконанні робіт за нарядом-допуском проводиться інструктаж:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позаплановий
+Цільовий
+Повторний
+</t>
+  </si>
+  <si>
+    <t>Цільовий</t>
+  </si>
+  <si>
+    <t>Новий наряд-допуск видається, якщо склад бригади змінився на:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 особу
+50%
+100%
+</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>Несучі елементи огородження колисок повинні витримувати навантаження не менше ніж ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700 Н
 1000 Н
-</t>
-  </si>
-  <si>
-    <t>700 Н</t>
-  </si>
-  <si>
-    <t>Після транспортування гусеничного крану на трейлері виконується ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Динамічне випробування
-Статичне випробування
-Обтягування канатів
-</t>
-  </si>
-  <si>
-    <t>Обтягування канатів</t>
+1300 Н
+</t>
+  </si>
+  <si>
+    <t>1000 Н</t>
+  </si>
+  <si>
+    <t>До складу нижньої будови кранової колії не входить ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Земляне полотно
+Водовідвідний пристрій
+Заземлення
+</t>
+  </si>
+  <si>
+    <t>Заземлення</t>
+  </si>
+  <si>
+    <t>Строп повинен бути вибракуваний, якщо спрацювання коушів складає понад...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7%
+15%
+40%
+</t>
+  </si>
+  <si>
+    <t>15%</t>
   </si>
   <si>
     <t>Яка максимальна зношуваність елементів карабінів?</t>
@@ -61,312 +354,26 @@
     <t>1 мм</t>
   </si>
   <si>
-    <t>Несучі елементи огорожі робочої платформи мають витримувати навантаження не менше ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700 Н
-1000 Н
-1300 Н
-</t>
-  </si>
-  <si>
-    <t>1300 Н</t>
-  </si>
-  <si>
-    <t>Чи допускається призначати додаткове робоче навантаження на строп для кута нахилу вітки до вертикалі 60°?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не допускається
-Допускається
-</t>
-  </si>
-  <si>
-    <t>Допускається</t>
-  </si>
-  <si>
-    <t>Працівник, який здійснює нагляд за утриманням та безпечною експлуатацією обладнання, за результатами перевірок видавати приписи ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Має право
-Зобов’язаний
-</t>
-  </si>
-  <si>
-    <t>Має право</t>
-  </si>
-  <si>
-    <t>Під виносні опори підкладаються підкладки ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При роботі на грунті
-У всіх випадках
-</t>
-  </si>
-  <si>
-    <t>У всіх випадках</t>
-  </si>
-  <si>
-    <t>Чи дозволяється працювати на мобільних підйомниках на електроустановках під напругою?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дозволяється
-Забороняється
-</t>
-  </si>
-  <si>
-    <t>Дозволяється</t>
-  </si>
-  <si>
-    <t>Повному періодичному технічному огляду в/п крани підлягають...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не рідше одного разу на 3 роки, крім окремих випадків
-Не рідше одного разу на 3 роки завжди
-</t>
-  </si>
-  <si>
-    <t>Не рідше одного разу на 3 роки завжди</t>
-  </si>
-  <si>
-    <t>Наряд-допуск на роботу біля неогороджених струмовідних частин електроустановок оформлюються, якщо вони ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перебувають під напругою
-Можуть перебувати під напругою
-</t>
-  </si>
-  <si>
-    <t>Можуть перебувати під напругою</t>
-  </si>
-  <si>
-    <t>При статичному випробуванні мобільних підйомників до робочої платформи підвішують вантаж, маса якого дорівнює ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% вантажопідіймальності
-15% вантажопідіймальності
-25% вантажопідіймальності
-</t>
-  </si>
-  <si>
-    <t>15% вантажопідіймальності</t>
-  </si>
-  <si>
-    <t>Під час виконання вантажно-розвантажувальних робіт відстань між поворотною частинною стрілового самохідного крану і препонами повинна бути не менше ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800 мм
-1000 мм
-1300 мм
-</t>
-  </si>
-  <si>
-    <t>800 мм</t>
-  </si>
-  <si>
-    <t>Статичне випробування мобільних підйомників проводиться навантаженням, що перевищує вантажопідіймальність на ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10%
-25%
-50%
-</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>При статичному випробуванні мостового крану вантаж підіймається на висоту ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100-200 мм
-200 - 300 мм
-до 0,5 м
-</t>
-  </si>
-  <si>
-    <t>200 - 300 мм</t>
-  </si>
-  <si>
-    <t>До модифікації крана відноситься...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реконструкція
-Модернізація
-Реконструкція і модернізація
-</t>
-  </si>
-  <si>
-    <t>Реконструкція і модернізація</t>
-  </si>
-  <si>
-    <t>Форма наряду-допуску:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Затверджується наказом роботодавця
-Установлюється законодавством
-</t>
-  </si>
-  <si>
-    <t>Установлюється законодавством</t>
-  </si>
-  <si>
-    <t>Чи допускається експлуатація запобіжного стропа, який був під динамічним навантаженням внаслідок падіння працівника?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Забороняється
-Допускається, якщо не має видимих пошкоджень.
-</t>
-  </si>
-  <si>
-    <t>Допускається, якщо не має видимих пошкоджень.</t>
-  </si>
-  <si>
-    <t>Виведення обладнання в ремонт здійснює ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Працівник по нагляду за утриманням и безпечною експлуатацією обладнання
-Працівник, відповідальний за утримання обладнання в справному стані
-Служба головного механіка відповідно до розробленого графіка
-</t>
-  </si>
-  <si>
-    <t>Працівник, відповідальний за утримання обладнання в справному стані</t>
-  </si>
-  <si>
-    <t>Чи дозволяється оформляти наряд-допуск олівцем?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дозволяється тільки в аварійних ситуаціях;
-Не дозволяється
-Дозволяється
-</t>
-  </si>
-  <si>
-    <t>Не дозволяється</t>
-  </si>
-  <si>
-    <t>Виносні опори - це пристрої, призначені для ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Збільшення опорного контору
-Створення опорного контуру
-</t>
-  </si>
-  <si>
-    <t>Збільшення опорного контору</t>
-  </si>
-  <si>
-    <t>Стропальник у роботі підпорядковується ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кранівнику
-ГГП майстру нач.цеху тощо
-Відповідальному за безпечне виконання робіт
-</t>
-  </si>
-  <si>
-    <t>Відповідальному за безпечне виконання робіт</t>
-  </si>
-  <si>
-    <t>За сильного туману, снігопаду робота крану ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Може бути подовжена при наявності радіотелефонного зв’язку
-Має бути припинена
-</t>
-  </si>
-  <si>
-    <t>Має бути припинена</t>
-  </si>
-  <si>
-    <t>Після заміни або у разі переписування канатів, обтягування канатів виконується вантажом, маса якого...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дорівнює вантажопідіймальності
-На 10% більше вантажопідіймальності
-На 25% більше вантажопідіймальності
-</t>
-  </si>
-  <si>
-    <t>Дорівнює вантажопідіймальності</t>
-  </si>
-  <si>
-    <t>При виконанні робіт за нарядом-допуском проводиться інструктаж:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Позаплановий
-Цільовий
-Повторний
-</t>
-  </si>
-  <si>
-    <t>Цільовий</t>
-  </si>
-  <si>
-    <t>Вантаж, що перебуває в підвішеному положенні, підтримувати, розвертати, направляти безпосередньо руками ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дозволяється, якщо він перебуває на висоті до 1 м
-Забороняється
-</t>
-  </si>
-  <si>
-    <t>Забороняється</t>
-  </si>
-  <si>
-    <t>Чи дозволяється використовувати заводський номер поясу як інвентарний?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Забороняється
-Дозволяється
-</t>
-  </si>
-  <si>
-    <t>Висота підіймання мобільного підйомника - це найбільша відстань по вертикалі від робочого майданчика до ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полу робочої платформи
-Полу робочої платформи плюс 1,5 м
-</t>
-  </si>
-  <si>
-    <t>Полу робочої платформи плюс 1,5 м</t>
-  </si>
-  <si>
-    <t>Новий наряд-допуск видається, якщо склад бригади змінився на:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 особу
-50%
-100%
-</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>Ширина проходів до робочих місць має бути не менше:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,6 м
-1 м
-1,5 м
-</t>
-  </si>
-  <si>
-    <t>0,6 м</t>
-  </si>
-  <si>
-    <t>Уловлювачи колисок випробуються навантаженням ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Що дорівнює вантажопідіймальності
-Більше вантажопідіймальності на 10%
-Більше вантажопідіймальності на 25%
-</t>
-  </si>
-  <si>
-    <t>Що дорівнює вантажопідіймальності</t>
+    <t>Сигнали, що подають стропальники за допомогою рук, є ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рекомендовані
+Обов’язкові
+</t>
+  </si>
+  <si>
+    <t>Обов’язкові</t>
+  </si>
+  <si>
+    <t>Чи можливий подальший рух в тому самому напрямку після спрацювання обмежника робочого руху?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можливий
+Неможливий
+</t>
+  </si>
+  <si>
+    <t>Можливий</t>
   </si>
 </sst>
 </file>
@@ -998,51 +1005,51 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
